--- a/data/버스확인(최종).xlsx
+++ b/data/버스확인(최종).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\위드유_현정\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,9 +71,6 @@
     <t>버스 번호</t>
   </si>
   <si>
-    <t>시내 버스</t>
-  </si>
-  <si>
     <t>저상버스</t>
   </si>
   <si>
@@ -103,6 +100,10 @@
       </rPr>
       <t>03 제외</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시내버스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,8 +633,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -646,11 +647,11 @@
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -666,7 +667,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>16</v>
@@ -738,7 +739,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>24</v>
@@ -1223,7 +1224,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2">
         <v>16</v>
@@ -2290,7 +2291,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B148" s="2">
         <f>SUM(B2:B146)</f>
@@ -2303,7 +2304,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" s="2">
         <v>2517</v>
